--- a/500all/speech_level/speeches_CHRG-114hhrg94579.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94579.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Miller. The Committee on Homeland Security, our Subcommittee on Border and Maritime Security, will come to order. The subcommittee is meeting today to examine the Visa Waiver Program and its effect on terrorist travel.    We are pleased today to be joined by Dr. Marc Frey of the Steptoe Johnson law firm, Mr. Roger Dow of the U.S. Travel Association, Dr. Steven Bucci of the Heritage Foundation, and Mr. Brian Michael Jenkins of the RAND Corporation. I will formally introduce them in just a moment. But I would like to make my opening statement first, myself and the Ranking Member.    Over the past year, the Islamic State of Iraq and the Levant or ISIL and several other extremist groups have attracted tens of thousands of young men and women to join their ranks; many of whom hold passports in France, the United Kingdom, Belgium, Canada, and other Western nations, including United States. Many foreign fighters could be just one flight away, bringing with them the skills, training, ideology, and commitment to killing Americans that they have learned overseas.    The threat that these foreign fighters pose is significant and growing in large part because the terrorists with Western passports are eligible for visa-free travel to the United States through the Visa Waiver Program. If we do not have good intelligence on the travel of these fighters or our allies in the Visa Waiver Program are not appropriately sharing what they know, then U.S. citizens could be at risk.    Last year, this subcommittee held a hearing on the Visa Waiver Program, where we heard from Government witnesses. We have called this hearing today to get an independent look at this program from outside experts. The Visa Waiver Program was designed to facilitate travel, to reduce the burden on the State Department, and to help encourage travel to the United States. However, after the tragic events of September 11, 2001, the program evolved to be a significant counterterrorism tool by simultaneously facilitating legitimate trade and travel.    Now, let me just state from the outset that I believe that this program is very effective at both facilitating travel and increasing our National security. Through the addition of the Electronic System for Travel Authorization--that we call ESTA--the information that CBP knows about a traveler before they get on a plane significantly increases our security.    Some of my colleagues have called for the Visa Waiver Program to be canceled or suspended. I personally think that is misguided. Millions of travelers fly using VWP every year, and stopping this program would bring cost to our economy and CBP would lose an important source of information for screening travelers entering the United States. In addition, information-sharing agreements, which are a prerequisite for membership, are also a key part of the intelligence that keeps Americans safe.    Make no mistake, terrorists are indeed looking for weaknesses in our defenses, and we have to prevent them from succeeding. Rather than end this valuable program, we need to continually evaluate the program to make sure it adequately balances our economic and security needs, especially in the light of the growing threat of foreign fighters entering the United States. Expansion of the program should only be done when it aligns with the security and economic interests of the United States, once a viable biometric exit system is in place, which can lead to more accurate reporting of visa overstay rates by our country.    To that end, I continue to call on this administration to publically release visa overstay rates, which are currently obtained through the flawed biographic system. While I am not surprised by the administration's lack of transparency on this, I am disappointed. The visa overstay report was promised to this Congress by Secretary Napolitano. While complete, the report continues to be held up by the White House. I urge the release of this report. The delay only serves to reinforce our belief that a biometric system would produce more timely and accurate results and could lead to expansion of this program for some of our Nation's most trusted allies.    Earlier this year, I introduced H.R. 158, the Visa Waiver Program Improvement Act that I believe will help to minimize the ability of terrorists to exploit the program. The bill allows the Secretary of Homeland Security to suspend participation of countries in the VWP if they do not share critical terrorism and foreign traveler data with the United States consistent with the program's underlying agreements.    This bill also requires the Department of Homeland to consider collecting additional pieces of information on ESTA applications to better screen foreign travelers, and requires an annual intelligence assessment conducted by the director of national intelligence and DHS to assess airport, passport, and travel document standards. This sounds like common sense. I think it is. Was very pleased that Secretary Johnson also called for adding of additional data elements to the ESTA application in November after this bill was initially introduced that called for a look at additional data elements to be considered.    Although CBP continuously vets all visa and ESTA applicants against our terrorist holdings, that information is imperfect if we do not have a complete picture of an individual's travel route. Collecting more information up-front will be helpful to do just that. Critical information sharing, especially with our European allies, is vital to help combat the threat of foreign fighters bound for the United States.    Unfortunately, Europe as a whole has been reluctant sometimes to share certain passenger name record data or PNR data with the United States, and such a gap puts United States citizens at risk. We recently learned that it was only after a prominent terrorist attack overseas that a Visa Waiver country provided the Department of Homeland Security names of individuals which pose a terror concern. Some of the names shared were not even on our radar screen previously.    Unfortunately, this demonstrates that we still have an information-sharing problem with some of our closest allies. Our bill gives the Department of Homeland the leverage it needs to make sure the information critical to our homeland security is being shared appropriately. As we have noted on many occasions, the 9/11 Commission was crystal-clear on this point when they said for terrorists, travel documents are as important as weapons.    So I certainly look forward to hearing from our witness today on the value of the Visa Waiver Program and what further changes we should look at to strengthen the Visa Waiver Program to combat the threat of foreign fighters. This subcommittee has a long record of interest and oversight when it comes to visa and travel document security. The reason for that, obviously, is very clear. Many terrorist plots and attacks have been successful or nearly successful because of holes in our visa and border security defenses. Defeating terrorists' ability to move internationally has long been a focus area for this subcommittee. There certainly is more that we can do and need to do to prevent attacks and limit terrorist mobility. That is the purpose of our hearing today.    The Chairman now recognizes the Ranking Minority of this subcommittee, the gentleman from Texas, Mr. Vela. Let me just mention that I am very, very delighted to have him serve as the Ranking Member. I certainly am looking forward to working very closely with him as we go through the 114th Congress on issues of bipartisan concern. There is nothing more concerning, certainly, than providing for the common defense, which is actually in the preamble of our Constitution, and is a principle reason for this committee. Thank you.</t>
   </si>
   <si>
     <t>412580</t>
   </si>
   <si>
-    <t>Filemon Vela</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vela. I agree, Chairman Miller, that this issue is one that has bipartisan support, because we all know how important it is to protect our country against terrorism. I want to thank you for holding today's hearing regarding the security of Visa Waiver Program.    As Chairman Miller and I both represent border districts with maritime interests, albeit on different borders, I believe we have many areas of mutual interest and concern to address in our work as this subcommittee moves forward.    Today, we are focusing on a border security issue of a different kind than what we are used to discussing; the security of a program that facilitates the travel of millions of visitors to this country each year, the Visa Waiver Program. In fact, with 38 countries currently participating in the program, about 40 percent of all overseas visitors enter the United States without a visa pursuant to the Visa Waiver Program.    Unfortunately, there is a growing concern that the Visa Waiver Program could be exploited by terrorists, and particularly those holding Western passports, who could attempt to travel to this country under this program.    With direction and support from Congress, in recent years the Department of Homeland Security has worked to strength the security of the Visa Waiver Program through the Electronic System for Travel Authorization and its other predeparture passenger screening programs. These programs complement and are supported by information-sharing agreements with Visa Waiver Program partnerships--partners that provide Department of Homeland Security with data to vet travelers more effectively.    With thousands of foreign fighters traveling to and from Syria, some of whom hold Western passports, concerns about the security of the Visa Waiver Program are not entirely unfounded. I hope our witnesses can share with us their perspectives on whether the Visa Waiver Program is secure or if Congress and the Department of Homeland Security need to do more to shore up this very important program.    As a Member representing a border district, I am keenly aware of the importance of international travel and trade to our Nation and its economy. I believe I join many of my colleagues in the hope that we can find a way to ensure the security of the Visa Waiver Program, while continuing to welcome visitors under the program to the United States.    Again, I thank the witnesses for joining us. I look forward to our discussion today and to a productive Congress for this subcommittee.</t>
   </si>
   <si>
@@ -73,36 +67,24 @@
     <t xml:space="preserve">    Mrs. Miller. Again, as I mentioned, we are pleased to be joined by four distinguished witnesses to discuss today's very important issue.    First of all, Dr. Marc Frey is a senior director in the Washington office of Steptoe and Johnson, which is an international law firm. Prior to joining Steptoe, Dr. Frey held several senior positions at the Department of Homeland Security, including the director of the Visa Waiver Program from 2007 to 2010. In that role, he oversaw the development and implementation of the VWP and directed the successful effort to enhance its security futures. Dr. Frey also serves as a senior associate with the Center for Strategic and International Studies and is a member of the American Council on Germany and the Atlantic Council of the United States. We welcome you, sir.    Mr. Roger Dow is the president and CEO of the U.S. Travel Association, the National association representing all segments of travel if the United States. In this role, Mr. Dow leads U.S. travel efforts to advocate for improved travel facilitation and visa reform and to provide travel research and analysis. We welcome you, sir.    Dr. Steven P. Bucci is the director of the Doug and Sarah Allison Center for Foreign and National Security Policy Studies at the Heritage Foundation, a position that he has held since 2012. Prior to working at the Heritage Foundation, Dr. Bucci spent many years in the military, including service as the commander of the 3rd Battalion, 5th Special Forces. In 2001, he assumed his position as military assistant to Secretary Donald Rumsfeld in the Pentagon, where he was stationed on the terrorist attacks of September 11. We welcome you. Thank you for your service to this Nation.    Mr. Brian Michael Jenkins is a senior adviser to the president of the RAND Corporation and author of numerous books, reports, and articles on terrorism and terrorism-related topics. Mr. Jenkins is also a decorated combat veteran, having served with the 5th Special Forces Group in Vietnam. Welcome home. In 1996, Mr. Jenkins was appointed to the White House Commission on aviation safety and security. From 1999 to 2000, he served as adviser to the National Commission on Terrorism. In 2000, was appointed to the U.S. Comptroller General's Advisory Board. So our witnesses' full statement will appear in the record.    The Chairman now recognizes Dr. Frey for his testimony.</t>
   </si>
   <si>
-    <t>Frey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Frey. Thank you, Chairman Miller. Good morning. It is my pleasure to be here this morning to talk about the Visa Waiver Program and be part of this distinguished panel.    I think to start off, what I would like to say is--and I guess this is a good way to start off--is to agree with you and agree with the Ranking Member to answer the question that the hearing's title posed, does the Visa Waiver Program keep us safe? I think answer to that is unequivocally yes. It is a critical counterterrorism and security tool for the United States that also facilitates travel. I would like to spend a little bit of time this morning talking specifically about why that is.    Because as you also mentioned, this is a timely hearing. Given the threats we are facing today from foreign fighters in particular, it is our responsibility to continue to evaluate programs like the VWP to continue to ensure that they are meeting the current threat environment. The good news with respect to the VWP in particular is there is a history of Congress and the Executive branch doing just that; working together to periodically reform and modernize the program to adapt to current threats. The most significant reform, and the one that is the basis for most of what we will be talking about today, was the reforms implemented in 2007 under the 9/11 Commission Act, which produced ESTA, produced information-sharing agreements and other things we will go into.    But before doing that, I would like to, you know, take a little bit of time just to talk about what the Visa Waiver Program is and, perhaps equally important, what it isn't. Because there does seem to be a perception, as I think you also said, Chairman Miller, that these people are just one flight away. In one sense that is, of course, true. But a statement like that obscures all of the work and all of the screening that DHS in particular and CBP and other agencies in the U.S. Government do to make sure that we are vetting Visa Waiver Program travelers appropriately.    So when the Visa Waiver Program waives the consular interview portion, it makes up for it with a whole host of other security requirements. One of these, of course, is ESTA, the Electronic System for Travel Authorization, which we have talked about, which does individualized prescreening and vetting of Visa Waiver Program travelers. That vetting is recurrent. So it is not that you get your ESTA and then you are good for the eligibility period. It is that ESTA continually vets applicants' data against lists and derogatory information, and ESTAs can can be revoked if new information comes to light.    The second piece of the Visa Waiver Program that is important in this context is the information-sharing and intelligence-sharing agreements that we talked about. Those are particularly important because the benefit or the information that the United States Government receives from those agreements, is fed into the ESTA vetting process. So that ensures to the extent we can that we have as much information on bad actors in foreign countries that we need to do our screening.    But there are two other parts that I think are also worth mentioning as to why the Visa Waiver Program helps keep us safe and is a key security program. The first of these is secure passports. The Visa Waiver Program mandates that travelers travel on electronic passports. These are passports that contain the biometric chip that also have the information, a digital paragraph, increasingly fingerprints, that matches the bio page. These are much, much harder to forge and to use fraudulently than regular passports. It is only within the context of the VWP that travelers are required to use these. So we have a much better confirmation of identity.    The other piece that I think is worth talking about are the regular DHS-led audits of Visa Waiver Program countries. It is a pretty--having led and participated in a number of these audits, it is a pretty remarkable tool that allows a team of DHS experts, supplemented by personnel from other agencies as appropriate, to visit a country and spend up to a week or 10 days or so reviewing security standards, border security standards, aviation security standards, passport standards, talking to their counterterrorism and security and law enforcement officials, and really giving U.S. Government visibility into the security practices of these countries.    To the extent the Department finds particular issues or items that are not up to our standards, mitigation measures can be both recommended and, in certain cases, insisted upon. It is a collaborative effort. But it is one where we have a remarkable insight into how other countries do their security, including in this context how other countries are able to both identify and track potential radicalized individuals who may become foreign fighters.    So in that sense, it is a very powerful tool. Those four elements really do work together to make the Visa Waiver Program important and an important security tool. That said, it can be evaluated. It should be evaluated, as we are doing today. So I think this hearing serves an excellent purpose. I think some of the reforms in the Visa Waiver Improvement Act of 2015 meet that objective. As you said, they are sensible reforms. They are things DHS should be looking at. In some cases, they are things that DHS is doing already. I think that should be encouraged.    I look forward to answering more of your questions going forward about the program and about the H.R. 158, the Visa Waiver Improvement Act, in particular. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Miller. Thank you.    The Chairman now recognizes Mr. Dow for his testimony.</t>
   </si>
   <si>
-    <t>Dow</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Dow. Thank you. That is very nice of you. Thank you.    The travel industry's top priority is ensuring that travelers are safe and secure. Without security, there is no travel. If travelers don't feel safe, they will stay home. The economic benefits of travel are well-documented. Since submitting my written testimony, I have now received the numbers for 2014. Direct travel spending in the United States was $927 billion. That generated $2.1 trillion in economic output and more than $141 million in tax revenue. Travel directly employed 8 million Americans is and a top-10 employer in 49 States and the District of Columbia.    In-bound long-haul or overseas international travel is an extremely lucrative segment for the United States. The Visa Waiver Program is the largest source of overseas visitors--20.3 million, or 60 percent, of all overseas visitors arrived through the Visa Waiver Program in 2014. Last year, they generated $190 billion in economic output and supported nearly 1 million good American jobs.    Expansion of the Visa Waiver Program has yielded substantial economic benefit. Following the recent admissions of Taiwan and Chile, travel from there rose sharply. This is no surprise, given the staggering increase of visitors from South Korea since its inclusion in 2008. In 2014, a record number of South Korean visitors, 1.5 million, visited the United States, which is a 91 percent increase since they entered the program. They spend $5.1 billion, which is 64 percent higher than 2008, and supported 43,000 good American jobs. Travel is the largest export now from South Korea, constituting 11 percent of the total exports to that country.    When countries enter the Visa Waiver Program, they add billions of dollars to the economy and tens of thousands of good American jobs. Speaking of jobs, the travel industry was hit hard by the economic downturn. But we are a very resilient industry. We helped lead the recovery by expanding employment 36 percent faster than the rest of the economy. Largely as a result of the Visa Waiver Program, travel is our Nation's No. 1 services export, generating $76 billion in 2014.    While these economic figures are very positive, they only tell half the story. International travel is equally critical to our National security. Through travel, we foster closer relationships with visitors that protect us over the long term. Simply said, the more they know us, the more they like us. Beyond public diplomacy, the protocols demanded by the--mandated by the Visa Waiver Program has significantly enhanced our National security, particularly since Congress amended the program in 2007.    Visa Waiver partner nations, while they are strong allies, must still meet rigorous counterterrorism, border security, aviation security, and document security standards, as well as participate, as has just been said, in intelligence and information-sharing arrangements with the United States. Visa Waiver countries must also issue ICAO-compliant electronic passports to their citizens and report all lost and stolen passports immediately to the United States through Interpol. Plus, each Visa Waiver traveler must obtain permission to board a flight to the United States through the electronic system of travel authorization.    Finally, the Visa Waiver Program provides the U.S. Government with the authority to regularly audit, just as my colleague has said. The Visa Waiver Program enables us to better detect, apprehend, and limit the movement of terrorists, criminals, and other dangerous travelers, and to shift the limited visa screening resources we have to higher-risk countries. That is why National security experts across the political spectrum, including every Secretary of Homeland Security, agree; the Visa Waiver Program is essential and an essential secure tool.    While the Visa Waiver Program helps keep us safer, we should never stop improving it. We believe that any changes should first elevate security, be based on fact not hearsay, minimize disruption of legitimate travelers. That is why U.S. Travel supports H.R. 158. It would upgrade threat assessment and explicitly define the U.S. authority to suspend or revoke Visa Waiver status.    By contrast, proposals to terminate or suspend the Visa Waiver Program would do incalculable harm to both the National and economic security. It would cause mayhem to the visa process that would have to take up all the slack and result in reciprocity against Americans who want to travel abroad. In fact, to improve security, we should expand the Visa Waiver Program, not curtail it, as representatives Joe Heck and Mike Quigley have proposed.    For U.S. Travel, nothing matters more than the safety of our Nation and our travelers. We appreciate your holding this hearing to explore how the Visa Waiver Program protects our homeland while facilitating trade and travel and how the Visa Waiver Program can perform both these twin missions even better. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Miller. Thank you very much, Mr. Dow. The Chairman now recognizes Dr. Bucci for his testimony.</t>
   </si>
   <si>
-    <t>Bucci</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bucci. Madam Chairman, Members, my name is Steven Bucci. I am the director of the Allison Center at Heritage. The views I express in this testimony are my own and should not be construed as representing any official position of the Heritage Foundation.    I spent a majority of my life in the military. I retired as an Army colonel, having served as a defense attache in several embassies and having served as a commander in special forces fighting terrorism. I also served as the deputy assistant secretary of defense for homeland defense for several years.    I will focus on two aspects of the VWP; the security and foreign policy pieces. News of European passport holders joining ISIS created concern about radicalized Western fighters abusing the program to engage in terrorism. This is a poor reason to scale back or end this program. The VWP promotes security. The ISIS threat only emphasizes the importance of its intel-sharing requirements.    Currently, the nations participating are required to share intelligence about known or suspected terrorists, exchange biographic, biometric, and criminal data, share information on lost and stolen passports, increase airport security, and provide reciprocal travel without a visa.    I have included a graphic in my written testimony. It shows side-by-side the ways a VWP traveler interfaces with the U.S. Government systems and the way a non-VWP traveler does. The bottom line is there are only two steps that are differences of note, two things that are skipped by a VWP traveler. The first is the face-to-face interview with Consular Services. The second is the pre-travel input of biometric data.    While I am not here to criticize the fine young folks who work at the consular desks in our embassies, but I have been there in several of them. About 25 percent of those face-to-face interviews are done by first-tour foreign service officers right out of training. They are not intel or law enforcement experts. The remaining 75 percent of the face-to-face interviews are done by foreign service nationals, local hires under the general supervision of our consular personnel.    In the VWP, we lose that step. But in return, we get the enhanced information sharing with the host nation law enforcement and intel services and access to their databases of potentially dangerous persons. As a former HUMINT collector and Green Beret, I am pretty comfortable saying that we get a lot more protection and security from that info sharing than we do from those face-to-face interviews, an incomparably greater amount of protection and security.    The second skipped step, frankly, is also a wash. We lose the pre-travel biometric input. But in return, as mentioned, all the VWP travelers have to travel with a machine-readable, biometrically-tagged passport, which is checked at their arrival point so we basically make up for that lost step. In short, the VWP gives us better security, not less.    With regard to foreign policy, we have treaty allies right who are not allowed into the VWP because they have not reached the 3 percent or less visa refusal rate and DHS no longer has the authority to waive it up to 10 percent. This is mistake. Given the many benefits of the VWP, the United States should be examining how to increase the membership judiciously. DHS should be allowed to waive the 3 percent limit, and Congress should add a low visa overstay rate, a better metric, which uses the country's overstay rates as a measure of how their citizens respect the terms of their entry into the United States.    While such permanent reform would be ideal, Congress could at least seek to return the waiver authority to DHS on a short-term or one-time basis, allowing the Secretary to accept treaty allies such as Poland into the VWP as long as their visa refusal rate were below that 10 percent mark. Such an action would help the United States economically, improve security, and remind our allies, especially those like Poland that face an ever-more aggressive Russia, that the United States stands with them.    The administration should be asked to provide the committee a list of countries that are in that category and whose general behavior and cooperation warranted for inclusion in the VWP. It should be done quickly and should be heralded as just what it is; a reward for positive behavior. But it is a reward that also benefits the United States greatly. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Miller. Thank you very much, Doctor.    The Chairman now recognizes Mr. Jenkins.</t>
   </si>
   <si>
-    <t>Jenkins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jenkins. Chairman Miller, Ranking Member Vela, and distinguished Members of the committee, thank you very much for the opportunity to address this important subject.    The testimony I have already submitted addresses two fundamental questions. One is the threat posed by Western fighters who have joined Jihadist fronts in Syria and Iran. No. 2, how can the United States enhance its ability to identify and intercept returning foreign fighters with passports from countries currently covered by the Visa Waiver Program?    You know, one of the advantages of going fourth here is that you can revise your order of remarks along the way. What I am about to do is just toss my oral remarks completely. Let me just underscore a few points that have already being touched upon.    First of all, the threat. This is serious. The continuing civil war in Syria, ISIL's military victories, and its claimed re-creation of the caliphate has created a great deal of excitement and has attracted foreign fighters from around the world. The numbers are constantly on the move. But we are looking at in excess of 20,000 foreign fighters who have now gone to Syria. Most of these are from Arab countries, but more than 3,000 are from Western countries, primarily Europe.    The bombing campaign by the coalition does not appear to have stopped this flow yet. In fact, just last week the Prime Minister of France said that they could expect 10,000 European fighters in Syria and Iraq by the end of this year. That is--now, this is a dangerous bunch. I mean, ISIL recruits people who are not simply--not only not repelled by images of beheadings and burning people alive and crucifixions and mass executions, that is its recruiting poster. It is gathering, assembling people who are looking for opportunities to participate in that.    Its al-Qaeda counterpart remains dedicated to attacking the far enemy; that is us. Right now, ISIL is not so concerned with launching attacks abroad. But under pressure, that strategy could change. If ISIL is defeated, then we could see the proliferation of small groups on the run bent upon revenge. So the threat is serious.    Visa Waiver Program. Look, our allies here understand they have got a major problem in Europe. The recent terrorist attacks underscore that. So they are taking a number of steps now to improve intelligence, to increase their criminal penalties. This allows us some real opportunities to work with them. One of the things that they are doing, for example, is adding elements to the PNR. We can use that information if it is shared with us in conjunction with the information that we get through ESTA in order to create new kinds of profiles that will identify these people coming in.    We are gonna have to shift our thinking here. The problem was overstay. The issue now is intercept. So the challenge for us is how we can take things like ESTA, PNR data, intelligence data, prescreening processes which are being extended abroad, as well as arrival procedures by customs and immigration officials, and knit them together into a National strategy.    So the point is this isn't just about Visa Waiver. Visa Waiver is a component of a larger necessary effort which is gonna have to go on for a long time because we are going to be dealing with the effluent of the fighting in Syria and Iraq for the foreseeable future. Thank you.</t>
   </si>
   <si>
@@ -190,9 +172,6 @@
     <t>412654</t>
   </si>
   <si>
-    <t>Will Hurd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurd. Madam Chairman, thank you. Ranking Member, it is always a pleasure.    One of my jobs when I was in--as an undercover officer in the CIA was--my cover job was stamping visas. So I am very familiar with this program. I would like to--you know, my denial rate was pretty high. So I was pretty tough.    One of the purposes of this hearing is to examine the programs and mechanisms that are in place of the Visa Waiver Program and which strengthens homeland security and help us us identify foreign fighters. My first question is to you, Mr. Frey. You talked about these DHA audits. What other controls are there to determine that the countries participating in this are following, you know, the rules and regulations of the Electronic System for Travel Authorization?</t>
   </si>
   <si>
@@ -235,9 +214,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Thank you. Good morning. I thank the Chairman very much. I thank the Ranking Member for this very valuable hearing. I recall that this subcommittee, Madame Chairman, and Ranking Member have really been on point on the Visa Waiver issue.    As you may recall, we did a hearing in September 2014. Really, seems as if we have been doing a number of things, and even passed a bill if I recall when we did the border security bill that we were very concerned about the issue of Visa Waiver.    To the witnesses, let me thank you for your testimony and mention that this hearing is more potent probably in this time and era than ever--that we have ever had questions of Visa Waiver Programs. I have seen this over my years of service in the United States Congress. As we note, our friend and ally Turkey, continually in the spotlight because of its border and relationship--or its relationship to Syria. Whether or not it is Denver teenagers leaving and going through Turkey or London teenagers going through Turkey, then we know for sure that foreign fighters can travel, and particularly those who have Visa Waiver structures in their own countries.    I would like to ask unanimous consent to put into the record H.R. 48, Madame Chairman. It is a bill that I hope that we can work on together in the Homeland Security Committee, both this committee, it is to review a--to require a review of the completeness of the Terrorist Screening Database maintained by the Federal Bureau of Investigation and the derivatives terrorist watch list utilized by the Transportation Security Administration and for other purposes.</t>
   </si>
   <si>
@@ -271,9 +247,6 @@
     <t>412469</t>
   </si>
   <si>
-    <t>Lou Barletta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you, Madam Chairman.    Dr. Bucci, in your testimony you cite to 2012 GAO testimony and a 2011 GAO testimony report that found that only roughly half of the 36 countries in the Visa Waiver Program at that time were participating in the information-sharing agreements as they pertain to terrorist watch lists or crime. Now, I know these figures have reportedly improved. Do you know how many there are now?</t>
   </si>
   <si>
@@ -311,9 +284,6 @@
   </si>
   <si>
     <t>412611</t>
-  </si>
-  <si>
-    <t>Martha McSally</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Madam Chairman. I appreciate it.</t>
@@ -802,11 +772,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -826,13 +794,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -854,11 +820,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -880,11 +844,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -906,11 +868,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -932,11 +892,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -958,11 +916,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -984,11 +940,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1010,11 +964,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1036,11 +988,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1062,11 +1012,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1088,11 +1036,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1114,11 +1060,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1140,11 +1084,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1166,11 +1108,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1192,11 +1132,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1218,11 +1156,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1244,11 +1180,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1270,11 +1204,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1296,11 +1228,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1322,11 +1252,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1348,11 +1276,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1374,11 +1300,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1400,11 +1324,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1426,11 +1348,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1452,11 +1372,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1476,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1504,11 +1420,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1528,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1556,11 +1468,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1580,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1608,11 +1516,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1632,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1660,11 +1564,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1684,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1712,11 +1612,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1736,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1764,11 +1660,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1788,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1816,11 +1708,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1840,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1868,11 +1756,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1892,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1920,11 +1804,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1944,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>58</v>
-      </c>
-      <c r="H46" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1972,11 +1852,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1996,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2024,11 +1900,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2050,11 +1924,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2074,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2102,11 +1972,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2126,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2154,11 +2020,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2178,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2206,11 +2068,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>28</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2230,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2258,11 +2116,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2282,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>72</v>
-      </c>
-      <c r="G59" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2310,11 +2164,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2334,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2362,11 +2212,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2386,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G63" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2414,11 +2260,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>25</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2438,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
-      </c>
-      <c r="G65" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2466,11 +2308,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2490,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2518,11 +2356,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2542,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2570,11 +2404,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2594,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
         <v>85</v>
-      </c>
-      <c r="H71" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2622,11 +2452,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2646,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>84</v>
-      </c>
-      <c r="G73" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2674,11 +2500,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2698,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2726,11 +2548,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2750,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2778,11 +2596,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2802,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
-      </c>
-      <c r="G79" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2830,11 +2644,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2854,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2882,11 +2692,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2906,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
         <v>98</v>
-      </c>
-      <c r="G83" t="s">
-        <v>99</v>
-      </c>
-      <c r="H83" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2934,11 +2740,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2958,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2986,11 +2788,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3010,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3038,11 +2836,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3062,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3090,11 +2884,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3116,11 +2908,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3142,11 +2932,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3168,11 +2956,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3194,11 +2980,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3220,11 +3004,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3246,11 +3028,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3272,11 +3052,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3298,11 +3076,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3324,11 +3100,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3350,11 +3124,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3376,11 +3148,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3402,11 +3172,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3428,11 +3196,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>28</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3454,11 +3220,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94579.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94579.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Miller</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Miller. The Committee on Homeland Security, our Subcommittee on Border and Maritime Security, will come to order. The subcommittee is meeting today to examine the Visa Waiver Program and its effect on terrorist travel.    We are pleased today to be joined by Dr. Marc Frey of the Steptoe Johnson law firm, Mr. Roger Dow of the U.S. Travel Association, Dr. Steven Bucci of the Heritage Foundation, and Mr. Brian Michael Jenkins of the RAND Corporation. I will formally introduce them in just a moment. But I would like to make my opening statement first, myself and the Ranking Member.    Over the past year, the Islamic State of Iraq and the Levant or ISIL and several other extremist groups have attracted tens of thousands of young men and women to join their ranks; many of whom hold passports in France, the United Kingdom, Belgium, Canada, and other Western nations, including United States. Many foreign fighters could be just one flight away, bringing with them the skills, training, ideology, and commitment to killing Americans that they have learned overseas.    The threat that these foreign fighters pose is significant and growing in large part because the terrorists with Western passports are eligible for visa-free travel to the United States through the Visa Waiver Program. If we do not have good intelligence on the travel of these fighters or our allies in the Visa Waiver Program are not appropriately sharing what they know, then U.S. citizens could be at risk.    Last year, this subcommittee held a hearing on the Visa Waiver Program, where we heard from Government witnesses. We have called this hearing today to get an independent look at this program from outside experts. The Visa Waiver Program was designed to facilitate travel, to reduce the burden on the State Department, and to help encourage travel to the United States. However, after the tragic events of September 11, 2001, the program evolved to be a significant counterterrorism tool by simultaneously facilitating legitimate trade and travel.    Now, let me just state from the outset that I believe that this program is very effective at both facilitating travel and increasing our National security. Through the addition of the Electronic System for Travel Authorization--that we call ESTA--the information that CBP knows about a traveler before they get on a plane significantly increases our security.    Some of my colleagues have called for the Visa Waiver Program to be canceled or suspended. I personally think that is misguided. Millions of travelers fly using VWP every year, and stopping this program would bring cost to our economy and CBP would lose an important source of information for screening travelers entering the United States. In addition, information-sharing agreements, which are a prerequisite for membership, are also a key part of the intelligence that keeps Americans safe.    Make no mistake, terrorists are indeed looking for weaknesses in our defenses, and we have to prevent them from succeeding. Rather than end this valuable program, we need to continually evaluate the program to make sure it adequately balances our economic and security needs, especially in the light of the growing threat of foreign fighters entering the United States. Expansion of the program should only be done when it aligns with the security and economic interests of the United States, once a viable biometric exit system is in place, which can lead to more accurate reporting of visa overstay rates by our country.    To that end, I continue to call on this administration to publically release visa overstay rates, which are currently obtained through the flawed biographic system. While I am not surprised by the administration's lack of transparency on this, I am disappointed. The visa overstay report was promised to this Congress by Secretary Napolitano. While complete, the report continues to be held up by the White House. I urge the release of this report. The delay only serves to reinforce our belief that a biometric system would produce more timely and accurate results and could lead to expansion of this program for some of our Nation's most trusted allies.    Earlier this year, I introduced H.R. 158, the Visa Waiver Program Improvement Act that I believe will help to minimize the ability of terrorists to exploit the program. The bill allows the Secretary of Homeland Security to suspend participation of countries in the VWP if they do not share critical terrorism and foreign traveler data with the United States consistent with the program's underlying agreements.    This bill also requires the Department of Homeland to consider collecting additional pieces of information on ESTA applications to better screen foreign travelers, and requires an annual intelligence assessment conducted by the director of national intelligence and DHS to assess airport, passport, and travel document standards. This sounds like common sense. I think it is. Was very pleased that Secretary Johnson also called for adding of additional data elements to the ESTA application in November after this bill was initially introduced that called for a look at additional data elements to be considered.    Although CBP continuously vets all visa and ESTA applicants against our terrorist holdings, that information is imperfect if we do not have a complete picture of an individual's travel route. Collecting more information up-front will be helpful to do just that. Critical information sharing, especially with our European allies, is vital to help combat the threat of foreign fighters bound for the United States.    Unfortunately, Europe as a whole has been reluctant sometimes to share certain passenger name record data or PNR data with the United States, and such a gap puts United States citizens at risk. We recently learned that it was only after a prominent terrorist attack overseas that a Visa Waiver country provided the Department of Homeland Security names of individuals which pose a terror concern. Some of the names shared were not even on our radar screen previously.    Unfortunately, this demonstrates that we still have an information-sharing problem with some of our closest allies. Our bill gives the Department of Homeland the leverage it needs to make sure the information critical to our homeland security is being shared appropriately. As we have noted on many occasions, the 9/11 Commission was crystal-clear on this point when they said for terrorists, travel documents are as important as weapons.    So I certainly look forward to hearing from our witness today on the value of the Visa Waiver Program and what further changes we should look at to strengthen the Visa Waiver Program to combat the threat of foreign fighters. This subcommittee has a long record of interest and oversight when it comes to visa and travel document security. The reason for that, obviously, is very clear. Many terrorist plots and attacks have been successful or nearly successful because of holes in our visa and border security defenses. Defeating terrorists' ability to move internationally has long been a focus area for this subcommittee. There certainly is more that we can do and need to do to prevent attacks and limit terrorist mobility. That is the purpose of our hearing today.    The Chairman now recognizes the Ranking Minority of this subcommittee, the gentleman from Texas, Mr. Vela. Let me just mention that I am very, very delighted to have him serve as the Ranking Member. I certainly am looking forward to working very closely with him as we go through the 114th Congress on issues of bipartisan concern. There is nothing more concerning, certainly, than providing for the common defense, which is actually in the preamble of our Constitution, and is a principle reason for this committee. Thank you.</t>
   </si>
   <si>
     <t>412580</t>
   </si>
   <si>
+    <t>Vela</t>
+  </si>
+  <si>
+    <t>Filemon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vela. I agree, Chairman Miller, that this issue is one that has bipartisan support, because we all know how important it is to protect our country against terrorism. I want to thank you for holding today's hearing regarding the security of Visa Waiver Program.    As Chairman Miller and I both represent border districts with maritime interests, albeit on different borders, I believe we have many areas of mutual interest and concern to address in our work as this subcommittee moves forward.    Today, we are focusing on a border security issue of a different kind than what we are used to discussing; the security of a program that facilitates the travel of millions of visitors to this country each year, the Visa Waiver Program. In fact, with 38 countries currently participating in the program, about 40 percent of all overseas visitors enter the United States without a visa pursuant to the Visa Waiver Program.    Unfortunately, there is a growing concern that the Visa Waiver Program could be exploited by terrorists, and particularly those holding Western passports, who could attempt to travel to this country under this program.    With direction and support from Congress, in recent years the Department of Homeland Security has worked to strength the security of the Visa Waiver Program through the Electronic System for Travel Authorization and its other predeparture passenger screening programs. These programs complement and are supported by information-sharing agreements with Visa Waiver Program partnerships--partners that provide Department of Homeland Security with data to vet travelers more effectively.    With thousands of foreign fighters traveling to and from Syria, some of whom hold Western passports, concerns about the security of the Visa Waiver Program are not entirely unfounded. I hope our witnesses can share with us their perspectives on whether the Visa Waiver Program is secure or if Congress and the Department of Homeland Security need to do more to shore up this very important program.    As a Member representing a border district, I am keenly aware of the importance of international travel and trade to our Nation and its economy. I believe I join many of my colleagues in the hope that we can find a way to ensure the security of the Visa Waiver Program, while continuing to welcome visitors under the program to the United States.    Again, I thank the witnesses for joining us. I look forward to our discussion today and to a productive Congress for this subcommittee.</t>
   </si>
   <si>
@@ -67,24 +79,36 @@
     <t xml:space="preserve">    Mrs. Miller. Again, as I mentioned, we are pleased to be joined by four distinguished witnesses to discuss today's very important issue.    First of all, Dr. Marc Frey is a senior director in the Washington office of Steptoe and Johnson, which is an international law firm. Prior to joining Steptoe, Dr. Frey held several senior positions at the Department of Homeland Security, including the director of the Visa Waiver Program from 2007 to 2010. In that role, he oversaw the development and implementation of the VWP and directed the successful effort to enhance its security futures. Dr. Frey also serves as a senior associate with the Center for Strategic and International Studies and is a member of the American Council on Germany and the Atlantic Council of the United States. We welcome you, sir.    Mr. Roger Dow is the president and CEO of the U.S. Travel Association, the National association representing all segments of travel if the United States. In this role, Mr. Dow leads U.S. travel efforts to advocate for improved travel facilitation and visa reform and to provide travel research and analysis. We welcome you, sir.    Dr. Steven P. Bucci is the director of the Doug and Sarah Allison Center for Foreign and National Security Policy Studies at the Heritage Foundation, a position that he has held since 2012. Prior to working at the Heritage Foundation, Dr. Bucci spent many years in the military, including service as the commander of the 3rd Battalion, 5th Special Forces. In 2001, he assumed his position as military assistant to Secretary Donald Rumsfeld in the Pentagon, where he was stationed on the terrorist attacks of September 11. We welcome you. Thank you for your service to this Nation.    Mr. Brian Michael Jenkins is a senior adviser to the president of the RAND Corporation and author of numerous books, reports, and articles on terrorism and terrorism-related topics. Mr. Jenkins is also a decorated combat veteran, having served with the 5th Special Forces Group in Vietnam. Welcome home. In 1996, Mr. Jenkins was appointed to the White House Commission on aviation safety and security. From 1999 to 2000, he served as adviser to the National Commission on Terrorism. In 2000, was appointed to the U.S. Comptroller General's Advisory Board. So our witnesses' full statement will appear in the record.    The Chairman now recognizes Dr. Frey for his testimony.</t>
   </si>
   <si>
+    <t>Frey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Frey. Thank you, Chairman Miller. Good morning. It is my pleasure to be here this morning to talk about the Visa Waiver Program and be part of this distinguished panel.    I think to start off, what I would like to say is--and I guess this is a good way to start off--is to agree with you and agree with the Ranking Member to answer the question that the hearing's title posed, does the Visa Waiver Program keep us safe? I think answer to that is unequivocally yes. It is a critical counterterrorism and security tool for the United States that also facilitates travel. I would like to spend a little bit of time this morning talking specifically about why that is.    Because as you also mentioned, this is a timely hearing. Given the threats we are facing today from foreign fighters in particular, it is our responsibility to continue to evaluate programs like the VWP to continue to ensure that they are meeting the current threat environment. The good news with respect to the VWP in particular is there is a history of Congress and the Executive branch doing just that; working together to periodically reform and modernize the program to adapt to current threats. The most significant reform, and the one that is the basis for most of what we will be talking about today, was the reforms implemented in 2007 under the 9/11 Commission Act, which produced ESTA, produced information-sharing agreements and other things we will go into.    But before doing that, I would like to, you know, take a little bit of time just to talk about what the Visa Waiver Program is and, perhaps equally important, what it isn't. Because there does seem to be a perception, as I think you also said, Chairman Miller, that these people are just one flight away. In one sense that is, of course, true. But a statement like that obscures all of the work and all of the screening that DHS in particular and CBP and other agencies in the U.S. Government do to make sure that we are vetting Visa Waiver Program travelers appropriately.    So when the Visa Waiver Program waives the consular interview portion, it makes up for it with a whole host of other security requirements. One of these, of course, is ESTA, the Electronic System for Travel Authorization, which we have talked about, which does individualized prescreening and vetting of Visa Waiver Program travelers. That vetting is recurrent. So it is not that you get your ESTA and then you are good for the eligibility period. It is that ESTA continually vets applicants' data against lists and derogatory information, and ESTAs can can be revoked if new information comes to light.    The second piece of the Visa Waiver Program that is important in this context is the information-sharing and intelligence-sharing agreements that we talked about. Those are particularly important because the benefit or the information that the United States Government receives from those agreements, is fed into the ESTA vetting process. So that ensures to the extent we can that we have as much information on bad actors in foreign countries that we need to do our screening.    But there are two other parts that I think are also worth mentioning as to why the Visa Waiver Program helps keep us safe and is a key security program. The first of these is secure passports. The Visa Waiver Program mandates that travelers travel on electronic passports. These are passports that contain the biometric chip that also have the information, a digital paragraph, increasingly fingerprints, that matches the bio page. These are much, much harder to forge and to use fraudulently than regular passports. It is only within the context of the VWP that travelers are required to use these. So we have a much better confirmation of identity.    The other piece that I think is worth talking about are the regular DHS-led audits of Visa Waiver Program countries. It is a pretty--having led and participated in a number of these audits, it is a pretty remarkable tool that allows a team of DHS experts, supplemented by personnel from other agencies as appropriate, to visit a country and spend up to a week or 10 days or so reviewing security standards, border security standards, aviation security standards, passport standards, talking to their counterterrorism and security and law enforcement officials, and really giving U.S. Government visibility into the security practices of these countries.    To the extent the Department finds particular issues or items that are not up to our standards, mitigation measures can be both recommended and, in certain cases, insisted upon. It is a collaborative effort. But it is one where we have a remarkable insight into how other countries do their security, including in this context how other countries are able to both identify and track potential radicalized individuals who may become foreign fighters.    So in that sense, it is a very powerful tool. Those four elements really do work together to make the Visa Waiver Program important and an important security tool. That said, it can be evaluated. It should be evaluated, as we are doing today. So I think this hearing serves an excellent purpose. I think some of the reforms in the Visa Waiver Improvement Act of 2015 meet that objective. As you said, they are sensible reforms. They are things DHS should be looking at. In some cases, they are things that DHS is doing already. I think that should be encouraged.    I look forward to answering more of your questions going forward about the program and about the H.R. 158, the Visa Waiver Improvement Act, in particular. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Miller. Thank you.    The Chairman now recognizes Mr. Dow for his testimony.</t>
   </si>
   <si>
+    <t>Dow</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Dow. Thank you. That is very nice of you. Thank you.    The travel industry's top priority is ensuring that travelers are safe and secure. Without security, there is no travel. If travelers don't feel safe, they will stay home. The economic benefits of travel are well-documented. Since submitting my written testimony, I have now received the numbers for 2014. Direct travel spending in the United States was $927 billion. That generated $2.1 trillion in economic output and more than $141 million in tax revenue. Travel directly employed 8 million Americans is and a top-10 employer in 49 States and the District of Columbia.    In-bound long-haul or overseas international travel is an extremely lucrative segment for the United States. The Visa Waiver Program is the largest source of overseas visitors--20.3 million, or 60 percent, of all overseas visitors arrived through the Visa Waiver Program in 2014. Last year, they generated $190 billion in economic output and supported nearly 1 million good American jobs.    Expansion of the Visa Waiver Program has yielded substantial economic benefit. Following the recent admissions of Taiwan and Chile, travel from there rose sharply. This is no surprise, given the staggering increase of visitors from South Korea since its inclusion in 2008. In 2014, a record number of South Korean visitors, 1.5 million, visited the United States, which is a 91 percent increase since they entered the program. They spend $5.1 billion, which is 64 percent higher than 2008, and supported 43,000 good American jobs. Travel is the largest export now from South Korea, constituting 11 percent of the total exports to that country.    When countries enter the Visa Waiver Program, they add billions of dollars to the economy and tens of thousands of good American jobs. Speaking of jobs, the travel industry was hit hard by the economic downturn. But we are a very resilient industry. We helped lead the recovery by expanding employment 36 percent faster than the rest of the economy. Largely as a result of the Visa Waiver Program, travel is our Nation's No. 1 services export, generating $76 billion in 2014.    While these economic figures are very positive, they only tell half the story. International travel is equally critical to our National security. Through travel, we foster closer relationships with visitors that protect us over the long term. Simply said, the more they know us, the more they like us. Beyond public diplomacy, the protocols demanded by the--mandated by the Visa Waiver Program has significantly enhanced our National security, particularly since Congress amended the program in 2007.    Visa Waiver partner nations, while they are strong allies, must still meet rigorous counterterrorism, border security, aviation security, and document security standards, as well as participate, as has just been said, in intelligence and information-sharing arrangements with the United States. Visa Waiver countries must also issue ICAO-compliant electronic passports to their citizens and report all lost and stolen passports immediately to the United States through Interpol. Plus, each Visa Waiver traveler must obtain permission to board a flight to the United States through the electronic system of travel authorization.    Finally, the Visa Waiver Program provides the U.S. Government with the authority to regularly audit, just as my colleague has said. The Visa Waiver Program enables us to better detect, apprehend, and limit the movement of terrorists, criminals, and other dangerous travelers, and to shift the limited visa screening resources we have to higher-risk countries. That is why National security experts across the political spectrum, including every Secretary of Homeland Security, agree; the Visa Waiver Program is essential and an essential secure tool.    While the Visa Waiver Program helps keep us safer, we should never stop improving it. We believe that any changes should first elevate security, be based on fact not hearsay, minimize disruption of legitimate travelers. That is why U.S. Travel supports H.R. 158. It would upgrade threat assessment and explicitly define the U.S. authority to suspend or revoke Visa Waiver status.    By contrast, proposals to terminate or suspend the Visa Waiver Program would do incalculable harm to both the National and economic security. It would cause mayhem to the visa process that would have to take up all the slack and result in reciprocity against Americans who want to travel abroad. In fact, to improve security, we should expand the Visa Waiver Program, not curtail it, as representatives Joe Heck and Mike Quigley have proposed.    For U.S. Travel, nothing matters more than the safety of our Nation and our travelers. We appreciate your holding this hearing to explore how the Visa Waiver Program protects our homeland while facilitating trade and travel and how the Visa Waiver Program can perform both these twin missions even better. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Miller. Thank you very much, Mr. Dow. The Chairman now recognizes Dr. Bucci for his testimony.</t>
   </si>
   <si>
+    <t>Bucci</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bucci. Madam Chairman, Members, my name is Steven Bucci. I am the director of the Allison Center at Heritage. The views I express in this testimony are my own and should not be construed as representing any official position of the Heritage Foundation.    I spent a majority of my life in the military. I retired as an Army colonel, having served as a defense attache in several embassies and having served as a commander in special forces fighting terrorism. I also served as the deputy assistant secretary of defense for homeland defense for several years.    I will focus on two aspects of the VWP; the security and foreign policy pieces. News of European passport holders joining ISIS created concern about radicalized Western fighters abusing the program to engage in terrorism. This is a poor reason to scale back or end this program. The VWP promotes security. The ISIS threat only emphasizes the importance of its intel-sharing requirements.    Currently, the nations participating are required to share intelligence about known or suspected terrorists, exchange biographic, biometric, and criminal data, share information on lost and stolen passports, increase airport security, and provide reciprocal travel without a visa.    I have included a graphic in my written testimony. It shows side-by-side the ways a VWP traveler interfaces with the U.S. Government systems and the way a non-VWP traveler does. The bottom line is there are only two steps that are differences of note, two things that are skipped by a VWP traveler. The first is the face-to-face interview with Consular Services. The second is the pre-travel input of biometric data.    While I am not here to criticize the fine young folks who work at the consular desks in our embassies, but I have been there in several of them. About 25 percent of those face-to-face interviews are done by first-tour foreign service officers right out of training. They are not intel or law enforcement experts. The remaining 75 percent of the face-to-face interviews are done by foreign service nationals, local hires under the general supervision of our consular personnel.    In the VWP, we lose that step. But in return, we get the enhanced information sharing with the host nation law enforcement and intel services and access to their databases of potentially dangerous persons. As a former HUMINT collector and Green Beret, I am pretty comfortable saying that we get a lot more protection and security from that info sharing than we do from those face-to-face interviews, an incomparably greater amount of protection and security.    The second skipped step, frankly, is also a wash. We lose the pre-travel biometric input. But in return, as mentioned, all the VWP travelers have to travel with a machine-readable, biometrically-tagged passport, which is checked at their arrival point so we basically make up for that lost step. In short, the VWP gives us better security, not less.    With regard to foreign policy, we have treaty allies right who are not allowed into the VWP because they have not reached the 3 percent or less visa refusal rate and DHS no longer has the authority to waive it up to 10 percent. This is mistake. Given the many benefits of the VWP, the United States should be examining how to increase the membership judiciously. DHS should be allowed to waive the 3 percent limit, and Congress should add a low visa overstay rate, a better metric, which uses the country's overstay rates as a measure of how their citizens respect the terms of their entry into the United States.    While such permanent reform would be ideal, Congress could at least seek to return the waiver authority to DHS on a short-term or one-time basis, allowing the Secretary to accept treaty allies such as Poland into the VWP as long as their visa refusal rate were below that 10 percent mark. Such an action would help the United States economically, improve security, and remind our allies, especially those like Poland that face an ever-more aggressive Russia, that the United States stands with them.    The administration should be asked to provide the committee a list of countries that are in that category and whose general behavior and cooperation warranted for inclusion in the VWP. It should be done quickly and should be heralded as just what it is; a reward for positive behavior. But it is a reward that also benefits the United States greatly. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Miller. Thank you very much, Doctor.    The Chairman now recognizes Mr. Jenkins.</t>
   </si>
   <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jenkins. Chairman Miller, Ranking Member Vela, and distinguished Members of the committee, thank you very much for the opportunity to address this important subject.    The testimony I have already submitted addresses two fundamental questions. One is the threat posed by Western fighters who have joined Jihadist fronts in Syria and Iran. No. 2, how can the United States enhance its ability to identify and intercept returning foreign fighters with passports from countries currently covered by the Visa Waiver Program?    You know, one of the advantages of going fourth here is that you can revise your order of remarks along the way. What I am about to do is just toss my oral remarks completely. Let me just underscore a few points that have already being touched upon.    First of all, the threat. This is serious. The continuing civil war in Syria, ISIL's military victories, and its claimed re-creation of the caliphate has created a great deal of excitement and has attracted foreign fighters from around the world. The numbers are constantly on the move. But we are looking at in excess of 20,000 foreign fighters who have now gone to Syria. Most of these are from Arab countries, but more than 3,000 are from Western countries, primarily Europe.    The bombing campaign by the coalition does not appear to have stopped this flow yet. In fact, just last week the Prime Minister of France said that they could expect 10,000 European fighters in Syria and Iraq by the end of this year. That is--now, this is a dangerous bunch. I mean, ISIL recruits people who are not simply--not only not repelled by images of beheadings and burning people alive and crucifixions and mass executions, that is its recruiting poster. It is gathering, assembling people who are looking for opportunities to participate in that.    Its al-Qaeda counterpart remains dedicated to attacking the far enemy; that is us. Right now, ISIL is not so concerned with launching attacks abroad. But under pressure, that strategy could change. If ISIL is defeated, then we could see the proliferation of small groups on the run bent upon revenge. So the threat is serious.    Visa Waiver Program. Look, our allies here understand they have got a major problem in Europe. The recent terrorist attacks underscore that. So they are taking a number of steps now to improve intelligence, to increase their criminal penalties. This allows us some real opportunities to work with them. One of the things that they are doing, for example, is adding elements to the PNR. We can use that information if it is shared with us in conjunction with the information that we get through ESTA in order to create new kinds of profiles that will identify these people coming in.    We are gonna have to shift our thinking here. The problem was overstay. The issue now is intercept. So the challenge for us is how we can take things like ESTA, PNR data, intelligence data, prescreening processes which are being extended abroad, as well as arrival procedures by customs and immigration officials, and knit them together into a National strategy.    So the point is this isn't just about Visa Waiver. Visa Waiver is a component of a larger necessary effort which is gonna have to go on for a long time because we are going to be dealing with the effluent of the fighting in Syria and Iraq for the foreseeable future. Thank you.</t>
   </si>
   <si>
@@ -172,6 +196,12 @@
     <t>412654</t>
   </si>
   <si>
+    <t>Hurd</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hurd. Madam Chairman, thank you. Ranking Member, it is always a pleasure.    One of my jobs when I was in--as an undercover officer in the CIA was--my cover job was stamping visas. So I am very familiar with this program. I would like to--you know, my denial rate was pretty high. So I was pretty tough.    One of the purposes of this hearing is to examine the programs and mechanisms that are in place of the Visa Waiver Program and which strengthens homeland security and help us us identify foreign fighters. My first question is to you, Mr. Frey. You talked about these DHA audits. What other controls are there to determine that the countries participating in this are following, you know, the rules and regulations of the Electronic System for Travel Authorization?</t>
   </si>
   <si>
@@ -214,6 +244,12 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Thank you. Good morning. I thank the Chairman very much. I thank the Ranking Member for this very valuable hearing. I recall that this subcommittee, Madame Chairman, and Ranking Member have really been on point on the Visa Waiver issue.    As you may recall, we did a hearing in September 2014. Really, seems as if we have been doing a number of things, and even passed a bill if I recall when we did the border security bill that we were very concerned about the issue of Visa Waiver.    To the witnesses, let me thank you for your testimony and mention that this hearing is more potent probably in this time and era than ever--that we have ever had questions of Visa Waiver Programs. I have seen this over my years of service in the United States Congress. As we note, our friend and ally Turkey, continually in the spotlight because of its border and relationship--or its relationship to Syria. Whether or not it is Denver teenagers leaving and going through Turkey or London teenagers going through Turkey, then we know for sure that foreign fighters can travel, and particularly those who have Visa Waiver structures in their own countries.    I would like to ask unanimous consent to put into the record H.R. 48, Madame Chairman. It is a bill that I hope that we can work on together in the Homeland Security Committee, both this committee, it is to review a--to require a review of the completeness of the Terrorist Screening Database maintained by the Federal Bureau of Investigation and the derivatives terrorist watch list utilized by the Transportation Security Administration and for other purposes.</t>
   </si>
   <si>
@@ -247,6 +283,12 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Barletta</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you, Madam Chairman.    Dr. Bucci, in your testimony you cite to 2012 GAO testimony and a 2011 GAO testimony report that found that only roughly half of the 36 countries in the Visa Waiver Program at that time were participating in the information-sharing agreements as they pertain to terrorist watch lists or crime. Now, I know these figures have reportedly improved. Do you know how many there are now?</t>
   </si>
   <si>
@@ -284,6 +326,12 @@
   </si>
   <si>
     <t>412611</t>
+  </si>
+  <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Madam Chairman. I appreciate it.</t>
@@ -722,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,7 +778,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,2477 +800,2853 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
       <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G51" t="s">
+        <v>60</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G57" t="s">
+        <v>76</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G59" t="s">
+        <v>76</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G63" t="s">
+        <v>89</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G65" t="s">
+        <v>89</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G67" t="s">
+        <v>89</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>76</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>89</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G71" t="s">
+        <v>89</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G73" t="s">
+        <v>89</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G75" t="s">
+        <v>104</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G77" t="s">
+        <v>104</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>89</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G79" t="s">
+        <v>104</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>89</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G81" t="s">
+        <v>104</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>89</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G83" t="s">
+        <v>104</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>89</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G85" t="s">
+        <v>104</v>
+      </c>
       <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>89</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G87" t="s">
+        <v>104</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>89</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G89" t="s">
+        <v>104</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>119</v>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94579.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94579.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>412580</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Vela</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
     <t>412654</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Hurd</t>
   </si>
   <si>
@@ -326,6 +335,9 @@
   </si>
   <si>
     <t>412611</t>
+  </si>
+  <si>
+    <t>Chair</t>
   </si>
   <si>
     <t>McSally</t>
@@ -770,7 +782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +790,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,2850 +815,3020 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I42" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>27</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G75" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H75" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G77" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G79" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G83" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G87" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H87" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>24</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>27</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>21</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>23</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>30</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>135</v>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
